--- a/art16/data_zero_bond_yield_curves.xlsx
+++ b/art16/data_zero_bond_yield_curves.xlsx
@@ -122,6 +122,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -165,10 +166,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>data!$A$2:$A$61</c:f>
+              <c:f>data!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -348,16 +349,136 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data!$B$2:$B$61</c:f>
+              <c:f>data!$B$2:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>-0.26500000000000001</c:v>
                 </c:pt>
@@ -537,6 +658,126 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>2.1110000000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.1190000000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.1269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.1339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.141</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.1480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.1549999999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.161</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.1680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.1739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.1909999999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.1970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.202</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.2069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.2130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.218</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.222</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.2269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.2320000000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.2360000000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.2410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.2450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.2490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.2530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.2570000000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.2610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.2650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.2799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.2829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.286</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.29</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.2930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.2959999999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.2989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.302</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.3050000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -580,10 +821,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>data!$A$2:$A$61</c:f>
+              <c:f>data!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -763,16 +1004,136 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data!$C$2:$C$61</c:f>
+              <c:f>data!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>-0.23499999999999999</c:v>
                 </c:pt>
@@ -952,6 +1313,126 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>1.859</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.8660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.873</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.879</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.8859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.8919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.8979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.9039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.91</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.915</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.92</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.9259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.931</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.9359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.9410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.9450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.9550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.9590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.9630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.9670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.972</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.9750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.9790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.9830000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.9870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.9910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.994</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.0009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.004</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.0070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.0110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.0139999999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.0169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.0230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.028</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.0310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.0339999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -966,14 +1447,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="157911680"/>
-        <c:axId val="157913856"/>
+        <c:axId val="118671232"/>
+        <c:axId val="118677504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="157911680"/>
+        <c:axId val="118671232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -981,12 +1462,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157913856"/>
+        <c:crossAx val="118677504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157913856"/>
+        <c:axId val="118677504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,7 +1478,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157911680"/>
+        <c:crossAx val="118671232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2495,7 +2976,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/art16/data_zero_bond_yield_curves.xlsx
+++ b/art16/data_zero_bond_yield_curves.xlsx
@@ -72,12 +72,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,7 +125,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1447,11 +1449,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="118671232"/>
-        <c:axId val="118677504"/>
+        <c:axId val="159057408"/>
+        <c:axId val="159059328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="118671232"/>
+        <c:axId val="159057408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1462,23 +1464,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118677504"/>
+        <c:crossAx val="159059328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118677504"/>
+        <c:axId val="159059328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118671232"/>
+        <c:crossAx val="159057408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1868,7 +1870,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -1879,7 +1881,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -1890,7 +1892,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -1901,7 +1903,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -1912,7 +1914,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -1923,7 +1925,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -1934,7 +1936,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -1945,7 +1947,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -1956,7 +1958,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -1967,7 +1969,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -1978,7 +1980,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="1">
@@ -1989,7 +1991,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="1">
@@ -2000,7 +2002,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="1">
@@ -2011,7 +2013,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="1">
@@ -2022,7 +2024,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="1">
@@ -2033,7 +2035,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="1">
@@ -2044,7 +2046,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="1">
@@ -2055,7 +2057,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="1">
@@ -2066,7 +2068,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="1">
@@ -2077,7 +2079,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="1">
@@ -2088,7 +2090,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="1">
@@ -2099,7 +2101,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="1">
@@ -2110,7 +2112,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="1">
@@ -2121,7 +2123,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="1">
@@ -2132,7 +2134,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="1">
@@ -2143,7 +2145,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="1">
@@ -2154,7 +2156,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="1">
@@ -2165,7 +2167,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="1">
@@ -2176,7 +2178,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="1">
@@ -2187,7 +2189,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="1">
@@ -2198,7 +2200,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="1">
@@ -2209,7 +2211,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="1">
@@ -2220,7 +2222,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="1">
@@ -2231,7 +2233,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="1">
@@ -2242,7 +2244,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="1">
@@ -2253,7 +2255,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="1">
@@ -2264,7 +2266,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="1">
@@ -2275,7 +2277,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="1">
@@ -2286,7 +2288,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="1">
@@ -2297,7 +2299,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="1">
@@ -2308,7 +2310,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="1">
@@ -2319,7 +2321,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="1">
@@ -2330,7 +2332,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="1">
@@ -2341,7 +2343,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="1">
@@ -2352,7 +2354,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="1">
@@ -2363,7 +2365,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="1">
@@ -2374,7 +2376,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="1">
@@ -2385,7 +2387,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="1">
@@ -2396,7 +2398,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="1">
@@ -2407,7 +2409,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="1">
@@ -2418,7 +2420,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="1">
@@ -2429,7 +2431,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="1">
@@ -2440,7 +2442,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="1">
@@ -2451,7 +2453,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="1">
@@ -2462,7 +2464,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="1">
@@ -2473,7 +2475,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="1">
@@ -2484,7 +2486,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="1">
@@ -2495,7 +2497,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="1">
@@ -2506,7 +2508,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" s="1">
@@ -2517,7 +2519,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" s="1">
@@ -2528,7 +2530,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="1">
@@ -2539,7 +2541,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63" s="1">
@@ -2550,7 +2552,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" s="1">
@@ -2561,7 +2563,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65" s="1">
@@ -2572,7 +2574,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" s="1">
@@ -2583,7 +2585,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67" s="1">
@@ -2594,7 +2596,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+      <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="1">
@@ -2605,7 +2607,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
       <c r="B69" s="1">
@@ -2616,7 +2618,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+      <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70" s="1">
@@ -2627,7 +2629,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
       <c r="B71" s="1">
@@ -2638,7 +2640,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+      <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="1">
@@ -2649,7 +2651,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+      <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73" s="1">
@@ -2660,7 +2662,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+      <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="1">
@@ -2671,7 +2673,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+      <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" s="1">
@@ -2682,7 +2684,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+      <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" s="1">
@@ -2693,7 +2695,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+      <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77" s="1">
@@ -2704,7 +2706,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+      <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78" s="1">
@@ -2715,7 +2717,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+      <c r="A79" s="3">
         <v>78</v>
       </c>
       <c r="B79" s="1">
@@ -2726,7 +2728,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+      <c r="A80" s="3">
         <v>79</v>
       </c>
       <c r="B80" s="1">
@@ -2737,7 +2739,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+      <c r="A81" s="3">
         <v>80</v>
       </c>
       <c r="B81" s="1">
@@ -2748,7 +2750,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+      <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82" s="1">
@@ -2759,7 +2761,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
+      <c r="A83" s="3">
         <v>82</v>
       </c>
       <c r="B83" s="1">
@@ -2770,7 +2772,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+      <c r="A84" s="3">
         <v>83</v>
       </c>
       <c r="B84" s="1">
@@ -2781,7 +2783,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+      <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85" s="1">
@@ -2792,7 +2794,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
+      <c r="A86" s="3">
         <v>85</v>
       </c>
       <c r="B86" s="1">
@@ -2803,7 +2805,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
+      <c r="A87" s="3">
         <v>86</v>
       </c>
       <c r="B87" s="1">
@@ -2814,7 +2816,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+      <c r="A88" s="3">
         <v>87</v>
       </c>
       <c r="B88" s="1">
@@ -2825,7 +2827,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
+      <c r="A89" s="3">
         <v>88</v>
       </c>
       <c r="B89" s="1">
@@ -2836,7 +2838,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
+      <c r="A90" s="3">
         <v>89</v>
       </c>
       <c r="B90" s="1">
@@ -2847,7 +2849,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
+      <c r="A91" s="3">
         <v>90</v>
       </c>
       <c r="B91" s="1">
@@ -2858,7 +2860,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
+      <c r="A92" s="3">
         <v>91</v>
       </c>
       <c r="B92" s="1">
@@ -2869,7 +2871,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
+      <c r="A93" s="3">
         <v>92</v>
       </c>
       <c r="B93" s="1">
@@ -2880,7 +2882,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
+      <c r="A94" s="3">
         <v>93</v>
       </c>
       <c r="B94" s="1">
@@ -2891,7 +2893,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
+      <c r="A95" s="3">
         <v>94</v>
       </c>
       <c r="B95" s="1">
@@ -2902,7 +2904,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
+      <c r="A96" s="3">
         <v>95</v>
       </c>
       <c r="B96" s="1">
@@ -2913,7 +2915,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
+      <c r="A97" s="3">
         <v>96</v>
       </c>
       <c r="B97" s="1">
@@ -2924,7 +2926,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
+      <c r="A98" s="3">
         <v>97</v>
       </c>
       <c r="B98" s="1">
@@ -2935,7 +2937,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
+      <c r="A99" s="3">
         <v>98</v>
       </c>
       <c r="B99" s="1">
@@ -2946,7 +2948,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
+      <c r="A100" s="3">
         <v>99</v>
       </c>
       <c r="B100" s="1">
@@ -2957,7 +2959,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
+      <c r="A101" s="3">
         <v>100</v>
       </c>
       <c r="B101" s="1">
@@ -2977,7 +2979,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
